--- a/inst/exdata/sampleDataPHIC.xlsx
+++ b/inst/exdata/sampleDataPHIC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="115">
   <si>
     <t xml:space="preserve">activity</t>
   </si>
@@ -119,9 +119,6 @@
     <t xml:space="preserve">field</t>
   </si>
   <si>
-    <t xml:space="preserve">attendance</t>
-  </si>
-  <si>
     <t xml:space="preserve">status</t>
   </si>
   <si>
@@ -186,6 +183,42 @@
   </si>
   <si>
     <t xml:space="preserve">dcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_12</t>
   </si>
   <si>
     <t xml:space="preserve">S-240</t>
@@ -346,7 +379,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="MM/DD/YYYY"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -440,12 +473,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -461,7 +494,7 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.15"/>
@@ -471,7 +504,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="8" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,10 +667,9 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,27 +735,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U19" activeCellId="0" sqref="U19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="13.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="30" min="12" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="32" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="13.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="11" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="31" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -740,21 +772,21 @@
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -799,7 +831,7 @@
       <c r="Y1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="AA1" s="4" t="s">
@@ -808,49 +840,82 @@
       <c r="AB1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="0" t="s">
         <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>14000</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="5" t="n">
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>41197</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>1</v>
@@ -885,325 +950,490 @@
       <c r="Y2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z2" s="1" t="n">
-        <v>1</v>
+      <c r="AC2" s="1" t="n">
+        <v>14000</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>14000</v>
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>41502</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>41502</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>11</v>
+      <c r="AD3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>42595</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>42595</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>12</v>
+      <c r="AD4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>43101</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>43465</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>43101</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>43465</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>13</v>
+      <c r="AD5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>43101</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>43465</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>43101</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>43465</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>14</v>
+      <c r="AD6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1228,27 +1458,26 @@
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,10 +1502,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,10 +1516,10 @@
         <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,10 +1530,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,10 +1544,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,10 +1558,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,10 +1572,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,10 +1586,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,10 +1600,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,10 +1614,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,10 +1628,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,10 +1642,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,10 +1656,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,10 +1670,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1455,10 +1684,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1469,10 +1698,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,10 +1712,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,10 +1726,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,10 +1740,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,10 +1754,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,10 +1768,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,10 +1782,10 @@
         <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,10 +1796,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,10 +1810,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1605,29 +1834,26 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>50000</v>
@@ -1638,7 +1864,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>100000</v>
@@ -1649,7 +1875,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>400</v>
@@ -1660,7 +1886,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>400</v>
@@ -1671,7 +1897,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>8000</v>

--- a/inst/exdata/sampleDataPHIC.xlsx
+++ b/inst/exdata/sampleDataPHIC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
   <si>
     <t xml:space="preserve">activity</t>
   </si>
@@ -221,6 +221,12 @@
     <t xml:space="preserve">a_12</t>
   </si>
   <si>
+    <t xml:space="preserve">VL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
     <t xml:space="preserve">S-240</t>
   </si>
   <si>
@@ -243,6 +249,9 @@
   </si>
   <si>
     <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">S-156</t>
@@ -667,7 +676,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
   </cols>
@@ -735,10 +744,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="AG1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG14" activeCellId="0" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -879,40 +888,46 @@
       <c r="AO1" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="AP1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>14000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>41197</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>1</v>
@@ -989,40 +1004,46 @@
       <c r="AO2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AP2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>41502</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>1</v>
@@ -1099,40 +1120,46 @@
       <c r="AO3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AP3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>42595</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>1</v>
@@ -1209,28 +1236,34 @@
       <c r="AO4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AP4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>43101</v>
@@ -1239,13 +1272,13 @@
         <v>43465</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>1</v>
@@ -1322,28 +1355,34 @@
       <c r="AO5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AP5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>43101</v>
@@ -1352,13 +1391,13 @@
         <v>43465</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>1</v>
@@ -1434,6 +1473,12 @@
       </c>
       <c r="AO6" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1503,7 @@
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
@@ -1468,16 +1513,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,10 +1533,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1502,10 +1547,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,10 +1561,10 @@
         <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,10 +1575,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,10 +1589,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,10 +1603,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,10 +1617,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1586,10 +1631,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,10 +1645,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1614,10 +1659,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1628,10 +1673,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,10 +1687,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,10 +1701,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,10 +1715,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,10 +1729,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,10 +1743,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,10 +1757,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,10 +1771,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,10 +1785,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,10 +1799,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,10 +1813,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,10 +1827,10 @@
         <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,10 +1841,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,10 +1855,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1838,22 +1883,22 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>50000</v>
@@ -1864,7 +1909,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>100000</v>
@@ -1875,7 +1920,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>400</v>
@@ -1886,7 +1931,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>400</v>
@@ -1897,7 +1942,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>8000</v>

--- a/inst/exdata/sampleDataPHIC.xlsx
+++ b/inst/exdata/sampleDataPHIC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="151">
   <si>
     <t xml:space="preserve">activity</t>
   </si>
@@ -173,16 +173,115 @@
     <t xml:space="preserve">DEC</t>
   </si>
   <si>
-    <t xml:space="preserve">d.rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d.ho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d.rh</t>
-  </si>
-  <si>
     <t xml:space="preserve">dcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_12</t>
   </si>
   <si>
     <t xml:space="preserve">a_1</t>
@@ -676,7 +775,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
   </cols>
@@ -744,10 +843,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:BX6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG14" activeCellId="0" sqref="AG14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -759,9 +858,15 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="13.02"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="11" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="31" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="11" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="38" min="28" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="40" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="62" min="52" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="64" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,19 +945,19 @@
       <c r="Y1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -894,40 +999,139 @@
       <c r="AQ1" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>14000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>41197</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>1</v>
@@ -965,85 +1169,85 @@
       <c r="Y2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AC2" s="1" t="n">
+      <c r="Z2" s="1" t="n">
         <v>14000</v>
       </c>
-      <c r="AD2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>75</v>
+      <c r="BK2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>41502</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>1</v>
@@ -1081,85 +1285,85 @@
       <c r="Y3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AD3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>75</v>
+      <c r="BK3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>42595</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>1</v>
@@ -1197,73 +1401,73 @@
       <c r="Y4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>75</v>
+      <c r="BK4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>43101</v>
@@ -1272,13 +1476,13 @@
         <v>43465</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>1</v>
@@ -1316,73 +1520,73 @@
       <c r="Y5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>75</v>
+      <c r="BK5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>43101</v>
@@ -1391,13 +1595,13 @@
         <v>43465</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>1</v>
@@ -1435,50 +1639,50 @@
       <c r="Y6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>75</v>
+      <c r="BK6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX6" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1503,7 +1707,7 @@
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
@@ -1513,16 +1717,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,10 +1737,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,10 +1751,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,10 +1765,10 @@
         <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,10 +1779,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,10 +1793,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,10 +1807,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,10 +1821,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,10 +1849,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,10 +1863,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,10 +1877,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,10 +1891,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,10 +1905,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,10 +1919,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1729,10 +1933,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,10 +1947,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,10 +1961,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,10 +1989,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1799,10 +2003,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,10 +2017,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,10 +2031,10 @@
         <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1841,10 +2045,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,10 +2059,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1883,22 +2087,22 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>50000</v>
@@ -1909,7 +2113,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>100000</v>
@@ -1920,7 +2124,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>400</v>
@@ -1931,7 +2135,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>400</v>
@@ -1942,7 +2146,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>8000</v>

--- a/inst/exdata/sampleDataPHIC.xlsx
+++ b/inst/exdata/sampleDataPHIC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">OT</t>
   </si>
   <si>
-    <t xml:space="preserve">costCode</t>
+    <t xml:space="preserve">costCenter</t>
   </si>
   <si>
     <t xml:space="preserve">Materials Handling General</t>
@@ -598,8 +598,8 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -775,7 +775,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
   </cols>
@@ -845,8 +845,8 @@
   </sheetPr>
   <dimension ref="A1:BX6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1707,7 +1707,7 @@
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
@@ -2087,7 +2087,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/inst/exdata/sampleDataPHIC.xlsx
+++ b/inst/exdata/sampleDataPHIC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="162">
   <si>
     <t xml:space="preserve">activity</t>
   </si>
@@ -173,7 +173,40 @@
     <t xml:space="preserve">DEC</t>
   </si>
   <si>
-    <t xml:space="preserve">dcc</t>
+    <t xml:space="preserve">dcc_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_12</t>
   </si>
   <si>
     <t xml:space="preserve">d.rd_1</t>
@@ -598,8 +631,8 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="AA2:AK6 G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -772,10 +805,10 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="AA2:AK6 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
   </cols>
@@ -843,10 +876,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BX6"/>
+  <dimension ref="A1:CI6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2:AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -860,13 +893,15 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="11" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="38" min="28" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="40" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="62" min="52" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="64" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="28" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="39" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="61" min="51" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="73" min="63" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="75" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,7 +983,7 @@
       <c r="Z1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -981,7 +1016,7 @@
       <c r="AK1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AM1" s="1" t="s">
@@ -1056,7 +1091,7 @@
       <c r="BJ1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BL1" s="1" t="s">
@@ -1089,7 +1124,7 @@
       <c r="BU1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BW1" s="1" t="s">
@@ -1098,40 +1133,73 @@
       <c r="BX1" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="BY1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>14000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>41197</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>1</v>
@@ -1172,82 +1240,115 @@
       <c r="Z2" s="1" t="n">
         <v>14000</v>
       </c>
-      <c r="BK2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" s="1" t="n">
-        <v>1</v>
+      <c r="AA2" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AK2" s="1" t="n">
+        <v>14000</v>
       </c>
       <c r="BV2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BW2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>108</v>
+      <c r="BW2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>41502</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>1</v>
@@ -1288,82 +1389,115 @@
       <c r="Z3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="BK3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="1" t="n">
-        <v>1</v>
+      <c r="AA3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="BV3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BW3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>108</v>
+      <c r="BW3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>42595</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>1</v>
@@ -1404,70 +1538,103 @@
       <c r="Z4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="1" t="n">
-        <v>1</v>
+      <c r="AA4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="BV4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BW4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BX4" s="1" t="s">
-        <v>108</v>
+      <c r="BW4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>43101</v>
@@ -1476,13 +1643,13 @@
         <v>43465</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>1</v>
@@ -1523,70 +1690,103 @@
       <c r="Z5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BK5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU5" s="1" t="n">
-        <v>1</v>
+      <c r="AA5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="BV5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BW5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>108</v>
+      <c r="BW5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CI5" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>43101</v>
@@ -1595,13 +1795,13 @@
         <v>43465</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>1</v>
@@ -1642,47 +1842,80 @@
       <c r="Z6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="BK6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU6" s="1" t="n">
-        <v>1</v>
+      <c r="AA6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="BV6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BW6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BX6" s="1" t="s">
-        <v>108</v>
+      <c r="BW6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CI6" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1704,10 +1937,10 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="1" sqref="AA2:AK6 I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
@@ -1717,16 +1950,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,10 +1970,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,10 +1984,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,10 +1998,10 @@
         <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,10 +2012,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,10 +2026,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,10 +2040,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,10 +2054,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,10 +2082,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,10 +2096,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,10 +2110,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,10 +2124,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,10 +2138,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,10 +2152,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,10 +2166,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,10 +2180,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,10 +2194,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1975,10 +2208,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,10 +2222,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,10 +2236,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,10 +2250,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,10 +2264,10 @@
         <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,10 +2278,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,10 +2292,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2084,25 +2317,25 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="AA2:AK6 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>50000</v>
@@ -2113,7 +2346,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>100000</v>
@@ -2124,7 +2357,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>400</v>
@@ -2135,7 +2368,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>400</v>
@@ -2146,7 +2379,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>8000</v>

--- a/inst/exdata/sampleDataPHIC.xlsx
+++ b/inst/exdata/sampleDataPHIC.xlsx
@@ -137,40 +137,40 @@
     <t xml:space="preserve">isRF</t>
   </si>
   <si>
-    <t xml:space="preserve">JAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEC</t>
+    <t xml:space="preserve">dependents_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_12</t>
   </si>
   <si>
     <t xml:space="preserve">dcc_1</t>
@@ -625,14 +625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="AA2:AK6 G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -798,17 +798,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="AA2:AK6 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
   </cols>
@@ -872,14 +872,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:CI6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2:AK6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -891,7 +891,12 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="13.02"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="11" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="14" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="13.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="28" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="8.67"/>
@@ -1930,17 +1935,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="1" sqref="AA2:AK6 I19"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
@@ -2310,17 +2315,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="AA2:AK6 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
